--- a/Dev Status.xlsx
+++ b/Dev Status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="316">
   <si>
     <t>176-pin STM32H753IIK Signal</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>USART2_CTS</t>
-  </si>
-  <si>
-    <t>USART2_CTS_TELEM3</t>
   </si>
   <si>
     <t>USART2_RTS</t>
@@ -921,6 +918,74 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_CTS_TELEM3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART4_TX</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1511,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1538,13 +1603,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>277</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="28">
         <v>0</v>
@@ -1573,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
@@ -1588,13 +1653,16 @@
       <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="13" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="28">
         <v>2</v>
@@ -1609,13 +1677,16 @@
       <c r="G4" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="H4" s="13" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="28">
         <v>3</v>
@@ -1630,13 +1701,16 @@
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="H5" s="22" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="28">
         <v>4</v>
@@ -1657,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="28">
         <v>5</v>
@@ -1673,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1681,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" s="28">
         <v>6</v>
@@ -1702,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="28">
         <v>7</v>
@@ -1717,13 +1791,16 @@
       <c r="G9" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="H9" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="28">
         <v>8</v>
@@ -1738,13 +1815,16 @@
       <c r="G10" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="H10" s="30" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" s="28">
         <v>9</v>
@@ -1765,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" s="28">
         <v>10</v>
@@ -1780,13 +1860,16 @@
       <c r="G12" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C13" s="28">
         <v>11</v>
@@ -1802,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,7 +1893,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" s="28">
         <v>12</v>
@@ -1826,7 +1909,7 @@
         <v>31</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" s="28">
         <v>13</v>
@@ -1850,7 +1933,7 @@
         <v>34</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1858,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" s="28">
         <v>14</v>
@@ -1874,7 +1957,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="28">
         <v>15</v>
@@ -1903,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C18" s="29">
         <v>0</v>
@@ -1924,7 +2007,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
@@ -1939,13 +2022,16 @@
       <c r="G19" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="H19" s="24" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C20" s="29">
         <v>2</v>
@@ -1961,7 +2047,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,7 +2055,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C21" s="29">
         <v>3</v>
@@ -1990,7 +2076,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" s="29">
         <v>4</v>
@@ -2006,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2014,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" s="29">
         <v>5</v>
@@ -2030,7 +2116,7 @@
         <v>51</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2038,7 +2124,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C24" s="29">
         <v>6</v>
@@ -2053,13 +2139,16 @@
       <c r="G24" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="H24" s="22" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C25" s="29">
         <v>7</v>
@@ -2074,13 +2163,16 @@
       <c r="G25" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="H25" s="22" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C26" s="29">
         <v>8</v>
@@ -2096,7 +2188,7 @@
         <v>57</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2104,7 +2196,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C27" s="29">
         <v>9</v>
@@ -2120,7 +2212,7 @@
         <v>59</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2128,7 +2220,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="29">
         <v>10</v>
@@ -2149,7 +2241,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" s="29">
         <v>11</v>
@@ -2164,13 +2256,16 @@
       <c r="G29" s="13" t="s">
         <v>62</v>
       </c>
+      <c r="H29" s="13" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
@@ -2186,7 +2281,7 @@
         <v>65</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2194,7 +2289,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" s="29">
         <v>13</v>
@@ -2210,7 +2305,7 @@
         <v>67</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2218,7 +2313,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="29">
         <v>14</v>
@@ -2234,7 +2329,7 @@
         <v>68</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2242,7 +2337,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C33" s="29">
         <v>15</v>
@@ -2258,7 +2353,7 @@
         <v>69</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2266,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="33">
         <v>0</v>
@@ -2281,13 +2376,16 @@
       <c r="G34" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="H34" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C35" s="33">
         <v>1</v>
@@ -2302,13 +2400,16 @@
       <c r="G35" s="13" t="s">
         <v>72</v>
       </c>
+      <c r="H35" s="13" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="33">
         <v>2</v>
@@ -2329,7 +2430,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" s="33">
         <v>3</v>
@@ -2350,7 +2451,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="33">
         <v>4</v>
@@ -2365,13 +2466,16 @@
       <c r="G38" s="13" t="s">
         <v>77</v>
       </c>
+      <c r="H38" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="33">
         <v>5</v>
@@ -2386,13 +2490,16 @@
       <c r="G39" s="13" t="s">
         <v>78</v>
       </c>
+      <c r="H39" s="13" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" s="33">
         <v>6</v>
@@ -2413,7 +2520,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" s="33">
         <v>7</v>
@@ -2434,7 +2541,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C42" s="33">
         <v>8</v>
@@ -2449,13 +2556,16 @@
       <c r="G42" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="H42" s="3" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C43" s="33">
         <v>9</v>
@@ -2470,13 +2580,16 @@
       <c r="G43" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="H43" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C44" s="33">
         <v>10</v>
@@ -2492,7 +2605,7 @@
         <v>89</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2500,7 +2613,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C45" s="33">
         <v>11</v>
@@ -2516,7 +2629,7 @@
         <v>91</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2524,7 +2637,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C46" s="33">
         <v>12</v>
@@ -2539,13 +2652,16 @@
       <c r="G46" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="H46" s="3" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C47" s="33">
         <v>13</v>
@@ -2560,13 +2676,16 @@
       <c r="G47" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="H47" s="3" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C48" s="33">
         <v>14</v>
@@ -2582,7 +2701,7 @@
         <v>98</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2590,7 +2709,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C49" s="33">
         <v>15</v>
@@ -2606,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,7 +2733,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C50" s="34">
         <v>0</v>
@@ -2630,7 +2749,7 @@
         <v>102</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2638,7 +2757,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="34">
         <v>1</v>
@@ -2654,7 +2773,7 @@
         <v>104</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2662,7 +2781,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="34">
         <v>2</v>
@@ -2677,13 +2796,16 @@
       <c r="G52" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="H52" s="3" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="34">
         <v>3</v>
@@ -2696,7 +2818,10 @@
         <v>9</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>108</v>
+        <v>306</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2704,20 +2829,23 @@
         <v>52</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C54" s="34">
         <v>4</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2725,20 +2853,23 @@
         <v>53</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C55" s="34">
         <v>5</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2746,23 +2877,23 @@
         <v>54</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C56" s="34">
         <v>6</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,23 +2901,23 @@
         <v>55</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C57" s="34">
         <v>7</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2794,23 +2925,23 @@
         <v>56</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C58" s="34">
         <v>8</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,23 +2949,23 @@
         <v>57</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C59" s="34">
         <v>9</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2842,20 +2973,23 @@
         <v>58</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C60" s="34">
         <v>10</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2863,20 +2997,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C61" s="34">
         <v>11</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2884,20 +3018,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C62" s="34">
         <v>12</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2905,20 +3039,23 @@
         <v>61</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="34">
         <v>13</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2926,20 +3063,23 @@
         <v>62</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C64" s="34">
         <v>14</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,20 +3087,20 @@
         <v>63</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C65" s="34">
         <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2968,20 +3108,23 @@
         <v>64</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C66" s="35">
         <v>0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2989,20 +3132,23 @@
         <v>65</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C67" s="35">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3010,20 +3156,20 @@
         <v>66</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C68" s="35">
         <v>2</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3031,23 +3177,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C69" s="35">
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3055,20 +3201,20 @@
         <v>68</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C70" s="35">
         <v>4</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3076,23 +3222,23 @@
         <v>69</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C71" s="35">
         <v>5</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3100,20 +3246,20 @@
         <v>70</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C72" s="35">
         <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3121,20 +3267,20 @@
         <v>71</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C73" s="35">
         <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3142,20 +3288,23 @@
         <v>72</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C74" s="35">
         <v>8</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3163,20 +3312,20 @@
         <v>73</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C75" s="35">
         <v>9</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
         <v>84</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3184,20 +3333,23 @@
         <v>74</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C76" s="35">
         <v>10</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3205,20 +3357,20 @@
         <v>75</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C77" s="35">
         <v>11</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3226,20 +3378,20 @@
         <v>76</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C78" s="35">
         <v>12</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,20 +3399,20 @@
         <v>77</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C79" s="35">
         <v>13</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3268,20 +3420,20 @@
         <v>78</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C80" s="35">
         <v>14</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3289,20 +3441,23 @@
         <v>79</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C81" s="35">
         <v>15</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3310,23 +3465,23 @@
         <v>80</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C82" s="31">
         <v>0</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3334,23 +3489,23 @@
         <v>81</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C83" s="31">
         <v>1</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3358,23 +3513,23 @@
         <v>82</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C84" s="31">
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3382,20 +3537,20 @@
         <v>83</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C85" s="31">
         <v>3</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3403,20 +3558,20 @@
         <v>84</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C86" s="31">
         <v>4</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3424,20 +3579,23 @@
         <v>85</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C87" s="31">
         <v>5</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3445,20 +3603,23 @@
         <v>86</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C88" s="31">
         <v>6</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3466,23 +3627,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C89" s="31">
         <v>7</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3490,20 +3651,23 @@
         <v>88</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C90" s="31">
         <v>8</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3511,20 +3675,23 @@
         <v>89</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C91" s="31">
         <v>9</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3532,20 +3699,20 @@
         <v>90</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C92" s="31">
         <v>10</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3553,23 +3720,23 @@
         <v>91</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C93" s="31">
         <v>11</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3577,20 +3744,20 @@
         <v>92</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C94" s="31">
         <v>12</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3598,20 +3765,23 @@
         <v>93</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C95" s="31">
         <v>13</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3619,23 +3789,23 @@
         <v>94</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C96" s="31">
         <v>14</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3643,23 +3813,23 @@
         <v>95</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C97" s="31">
         <v>15</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3667,23 +3837,23 @@
         <v>96</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C98" s="36">
         <v>0</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3691,23 +3861,23 @@
         <v>97</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C99" s="36">
         <v>1</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,23 +3885,23 @@
         <v>98</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C100" s="36">
         <v>2</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3739,23 +3909,23 @@
         <v>99</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C101" s="36">
         <v>3</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3763,20 +3933,23 @@
         <v>100</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C102" s="36">
         <v>4</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="H102" s="21" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3784,20 +3957,20 @@
         <v>101</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C103" s="36">
         <v>5</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3805,20 +3978,20 @@
         <v>102</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C104" s="36">
         <v>6</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3826,23 +3999,23 @@
         <v>103</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C105" s="36">
         <v>7</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3850,20 +4023,20 @@
         <v>104</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C106" s="36">
         <v>8</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3871,23 +4044,23 @@
         <v>105</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C107" s="36">
         <v>9</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3895,20 +4068,23 @@
         <v>106</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C108" s="36">
         <v>10</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="H108" s="21" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3916,23 +4092,23 @@
         <v>107</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C109" s="36">
         <v>11</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3940,20 +4116,23 @@
         <v>108</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C110" s="36">
         <v>12</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3961,20 +4140,23 @@
         <v>109</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C111" s="36">
         <v>13</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3982,20 +4164,20 @@
         <v>110</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C112" s="36">
         <v>14</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4003,20 +4185,23 @@
         <v>111</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C113" s="36">
         <v>15</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="H113" s="21" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4024,23 +4209,23 @@
         <v>112</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C114" s="32">
         <v>0</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4048,23 +4233,23 @@
         <v>113</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C115" s="32">
         <v>1</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,20 +4257,20 @@
         <v>114</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C116" s="32">
         <v>2</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4093,23 +4278,23 @@
         <v>115</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C117" s="32">
         <v>3</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4117,23 +4302,23 @@
         <v>116</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C118" s="32">
         <v>4</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4141,20 +4326,23 @@
         <v>117</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C119" s="32">
         <v>5</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="H119" s="21" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4162,20 +4350,23 @@
         <v>118</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C120" s="32">
         <v>6</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4183,23 +4374,23 @@
         <v>119</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C121" s="32">
         <v>7</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4207,20 +4398,23 @@
         <v>120</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C122" s="32">
         <v>8</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="H122" s="30" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4228,20 +4422,23 @@
         <v>121</v>
       </c>
       <c r="B123" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C123" s="32">
         <v>9</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4249,20 +4446,23 @@
         <v>122</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C124" s="32">
         <v>10</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4270,20 +4470,23 @@
         <v>123</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C125" s="32">
         <v>11</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4291,20 +4494,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C126" s="32">
         <v>12</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4312,20 +4518,23 @@
         <v>125</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C127" s="32">
         <v>13</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>248</v>
+        <v>312</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4333,20 +4542,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C128" s="32">
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4354,20 +4566,20 @@
         <v>127</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C129" s="32">
         <v>15</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4375,20 +4587,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C130" s="37">
         <v>0</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4396,20 +4611,23 @@
         <v>129</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C131" s="37">
         <v>1</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,20 +4635,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C132" s="37">
         <v>2</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4438,20 +4659,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C133" s="37">
         <v>3</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4459,23 +4683,23 @@
         <v>132</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C134" s="37">
         <v>4</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4483,20 +4707,20 @@
         <v>133</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C135" s="37">
         <v>5</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4504,23 +4728,23 @@
         <v>134</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C136" s="37">
         <v>6</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4528,23 +4752,23 @@
         <v>135</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C137" s="37">
         <v>7</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4552,23 +4776,23 @@
         <v>136</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C138" s="37">
         <v>8</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H138" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4576,23 +4800,23 @@
         <v>137</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C139" s="37">
         <v>9</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4600,20 +4824,20 @@
         <v>138</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C140" s="37">
         <v>10</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4621,20 +4845,20 @@
         <v>139</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C141" s="37">
         <v>11</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Dev Status.xlsx
+++ b/Dev Status.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3836251-308D-4AD5-979C-867AAB9B4A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="39810" yWindow="4140" windowWidth="19275" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="316">
   <si>
     <t>176-pin STM32H753IIK Signal</t>
   </si>
@@ -265,9 +278,6 @@
   </si>
   <si>
     <t>USART6_RX</t>
-  </si>
-  <si>
-    <t>USART6_RX_FROM_IO__RC_INPUT</t>
   </si>
   <si>
     <t>UART5_RTS</t>
@@ -998,13 +1008,17 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6_RX_FROM_IO__RC_INPUT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1017,6 +1031,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1179,7 +1194,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1292,11 +1307,20 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1573,11 +1597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1603,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1617,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="28">
         <v>0</v>
@@ -1632,19 +1656,22 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="H2" s="39" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
@@ -1654,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1662,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" s="28">
         <v>2</v>
@@ -1678,7 +1705,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1686,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="28">
         <v>3</v>
@@ -1702,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1710,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="28">
         <v>4</v>
@@ -1725,13 +1752,16 @@
       <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="39" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="28">
         <v>5</v>
@@ -1747,7 +1777,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1755,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="28">
         <v>6</v>
@@ -1776,7 +1806,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="28">
         <v>7</v>
@@ -1792,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1800,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" s="28">
         <v>8</v>
@@ -1816,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1824,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C11" s="28">
         <v>9</v>
@@ -1845,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C12" s="28">
         <v>10</v>
@@ -1861,7 +1891,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1869,7 +1899,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" s="28">
         <v>11</v>
@@ -1885,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1893,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="28">
         <v>12</v>
@@ -1909,7 +1939,7 @@
         <v>31</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1917,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" s="28">
         <v>13</v>
@@ -1933,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1941,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="28">
         <v>14</v>
@@ -1957,7 +1987,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1965,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="28">
         <v>15</v>
@@ -1986,7 +2016,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="29">
         <v>0</v>
@@ -2001,13 +2031,16 @@
       <c r="G18" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="H18" s="39" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
@@ -2023,7 +2056,7 @@
         <v>43</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2031,7 +2064,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C20" s="29">
         <v>2</v>
@@ -2047,7 +2080,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2055,7 +2088,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" s="29">
         <v>3</v>
@@ -2076,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C22" s="29">
         <v>4</v>
@@ -2092,7 +2125,7 @@
         <v>48</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2100,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C23" s="29">
         <v>5</v>
@@ -2116,7 +2149,7 @@
         <v>51</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2124,7 +2157,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24" s="29">
         <v>6</v>
@@ -2140,7 +2173,7 @@
         <v>53</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,7 +2181,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C25" s="29">
         <v>7</v>
@@ -2164,7 +2197,7 @@
         <v>55</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2172,7 +2205,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C26" s="29">
         <v>8</v>
@@ -2188,7 +2221,7 @@
         <v>57</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2196,7 +2229,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="29">
         <v>9</v>
@@ -2212,7 +2245,7 @@
         <v>59</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2220,7 +2253,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C28" s="29">
         <v>10</v>
@@ -2241,7 +2274,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" s="29">
         <v>11</v>
@@ -2257,7 +2290,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2265,7 +2298,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
@@ -2281,7 +2314,7 @@
         <v>65</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,7 +2322,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" s="29">
         <v>13</v>
@@ -2305,7 +2338,7 @@
         <v>67</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2313,7 +2346,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="29">
         <v>14</v>
@@ -2329,7 +2362,7 @@
         <v>68</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2337,7 +2370,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="29">
         <v>15</v>
@@ -2353,7 +2386,7 @@
         <v>69</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2361,7 +2394,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C34" s="33">
         <v>0</v>
@@ -2377,7 +2410,7 @@
         <v>71</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,7 +2418,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C35" s="33">
         <v>1</v>
@@ -2401,7 +2434,7 @@
         <v>72</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2409,7 +2442,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C36" s="33">
         <v>2</v>
@@ -2430,7 +2463,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="33">
         <v>3</v>
@@ -2451,7 +2484,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="33">
         <v>4</v>
@@ -2467,7 +2500,7 @@
         <v>77</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2475,7 +2508,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" s="33">
         <v>5</v>
@@ -2491,7 +2524,7 @@
         <v>78</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2499,7 +2532,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C40" s="33">
         <v>6</v>
@@ -2514,13 +2547,16 @@
       <c r="G40" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="H40" s="13" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C41" s="33">
         <v>7</v>
@@ -2532,8 +2568,11 @@
       <c r="F41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>82</v>
+      <c r="G41" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2541,23 +2580,23 @@
         <v>40</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C42" s="33">
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H42" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2565,23 +2604,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C43" s="33">
         <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2589,23 +2628,23 @@
         <v>42</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C44" s="33">
         <v>10</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2613,23 +2652,23 @@
         <v>43</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C45" s="33">
         <v>11</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2637,23 +2676,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C46" s="33">
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,23 +2700,23 @@
         <v>45</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C47" s="33">
         <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2685,23 +2724,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C48" s="33">
         <v>14</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="H48" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2709,23 +2748,23 @@
         <v>47</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C49" s="33">
         <v>15</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2733,23 +2772,23 @@
         <v>48</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C50" s="34">
         <v>0</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2757,23 +2796,23 @@
         <v>49</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C51" s="34">
         <v>1</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2781,23 +2820,23 @@
         <v>50</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C52" s="34">
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2805,23 +2844,23 @@
         <v>51</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C53" s="34">
         <v>3</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2829,23 +2868,23 @@
         <v>52</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C54" s="34">
         <v>4</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2853,23 +2892,23 @@
         <v>53</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C55" s="34">
         <v>5</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2877,23 +2916,23 @@
         <v>54</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" s="34">
         <v>6</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2901,23 +2940,23 @@
         <v>55</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C57" s="34">
         <v>7</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2925,23 +2964,23 @@
         <v>56</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C58" s="34">
         <v>8</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2949,23 +2988,23 @@
         <v>57</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C59" s="34">
         <v>9</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2973,23 +3012,23 @@
         <v>58</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C60" s="34">
         <v>10</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2997,20 +3036,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C61" s="34">
         <v>11</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3018,20 +3057,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C62" s="34">
         <v>12</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3039,23 +3078,23 @@
         <v>61</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C63" s="34">
         <v>13</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3063,23 +3102,23 @@
         <v>62</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C64" s="34">
         <v>14</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3087,20 +3126,20 @@
         <v>63</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C65" s="34">
         <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3108,23 +3147,23 @@
         <v>64</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C66" s="35">
         <v>0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3132,23 +3171,23 @@
         <v>65</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C67" s="35">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,20 +3195,20 @@
         <v>66</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C68" s="35">
         <v>2</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3177,23 +3216,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C69" s="35">
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3201,20 +3240,20 @@
         <v>68</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C70" s="35">
         <v>4</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,23 +3261,23 @@
         <v>69</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C71" s="35">
         <v>5</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,20 +3285,20 @@
         <v>70</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C72" s="35">
         <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3267,20 +3306,23 @@
         <v>71</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C73" s="35">
         <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3288,23 +3330,23 @@
         <v>72</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C74" s="35">
         <v>8</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3312,20 +3354,20 @@
         <v>73</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C75" s="35">
         <v>9</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3333,23 +3375,23 @@
         <v>74</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C76" s="35">
         <v>10</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3357,20 +3399,20 @@
         <v>75</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C77" s="35">
         <v>11</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3378,20 +3420,20 @@
         <v>76</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C78" s="35">
         <v>12</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3399,20 +3441,20 @@
         <v>77</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C79" s="35">
         <v>13</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3420,20 +3462,20 @@
         <v>78</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C80" s="35">
         <v>14</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3441,23 +3483,23 @@
         <v>79</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C81" s="35">
         <v>15</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3465,23 +3507,23 @@
         <v>80</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C82" s="31">
         <v>0</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3489,23 +3531,23 @@
         <v>81</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C83" s="31">
         <v>1</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3513,23 +3555,23 @@
         <v>82</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C84" s="31">
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3537,20 +3579,20 @@
         <v>83</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C85" s="31">
         <v>3</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,20 +3600,23 @@
         <v>84</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" s="31">
         <v>4</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3579,23 +3624,23 @@
         <v>85</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" s="31">
         <v>5</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H87" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3603,23 +3648,23 @@
         <v>86</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C88" s="31">
         <v>6</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3627,23 +3672,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C89" s="31">
         <v>7</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3651,23 +3696,23 @@
         <v>88</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" s="31">
         <v>8</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3675,23 +3720,23 @@
         <v>89</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" s="31">
         <v>9</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3699,20 +3744,20 @@
         <v>90</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C92" s="31">
         <v>10</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3720,23 +3765,23 @@
         <v>91</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C93" s="31">
         <v>11</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3744,20 +3789,23 @@
         <v>92</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C94" s="31">
         <v>12</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="H94" s="39" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3765,23 +3813,23 @@
         <v>93</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95" s="31">
         <v>13</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3789,23 +3837,23 @@
         <v>94</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" s="31">
         <v>14</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3813,23 +3861,23 @@
         <v>95</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C97" s="31">
         <v>15</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3837,23 +3885,23 @@
         <v>96</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C98" s="36">
         <v>0</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3861,23 +3909,23 @@
         <v>97</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C99" s="36">
         <v>1</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3885,23 +3933,23 @@
         <v>98</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C100" s="36">
         <v>2</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3909,23 +3957,23 @@
         <v>99</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C101" s="36">
         <v>3</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3933,23 +3981,23 @@
         <v>100</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C102" s="36">
         <v>4</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H102" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3957,20 +4005,20 @@
         <v>101</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C103" s="36">
         <v>5</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3978,20 +4026,20 @@
         <v>102</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C104" s="36">
         <v>6</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3999,23 +4047,23 @@
         <v>103</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C105" s="36">
         <v>7</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4023,20 +4071,23 @@
         <v>104</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C106" s="36">
         <v>8</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="H106" s="38" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4044,23 +4095,23 @@
         <v>105</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C107" s="36">
         <v>9</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4068,23 +4119,23 @@
         <v>106</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C108" s="36">
         <v>10</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H108" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4092,23 +4143,23 @@
         <v>107</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C109" s="36">
         <v>11</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4116,23 +4167,23 @@
         <v>108</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C110" s="36">
         <v>12</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4140,23 +4191,23 @@
         <v>109</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C111" s="36">
         <v>13</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4164,20 +4215,20 @@
         <v>110</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C112" s="36">
         <v>14</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4185,23 +4236,23 @@
         <v>111</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C113" s="36">
         <v>15</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4209,23 +4260,23 @@
         <v>112</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C114" s="32">
         <v>0</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4233,23 +4284,23 @@
         <v>113</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C115" s="32">
         <v>1</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4257,20 +4308,23 @@
         <v>114</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C116" s="32">
         <v>2</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="H116" s="38" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4278,23 +4332,23 @@
         <v>115</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C117" s="32">
         <v>3</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4302,23 +4356,23 @@
         <v>116</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C118" s="32">
         <v>4</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4326,23 +4380,23 @@
         <v>117</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C119" s="32">
         <v>5</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4350,23 +4404,23 @@
         <v>118</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" s="32">
         <v>6</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4374,23 +4428,23 @@
         <v>119</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C121" s="32">
         <v>7</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4398,23 +4452,23 @@
         <v>120</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C122" s="32">
         <v>8</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4422,23 +4476,23 @@
         <v>121</v>
       </c>
       <c r="B123" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C123" s="32">
         <v>9</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4446,23 +4500,23 @@
         <v>122</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C124" s="32">
         <v>10</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4470,23 +4524,23 @@
         <v>123</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C125" s="32">
         <v>11</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4494,23 +4548,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C126" s="32">
         <v>12</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4518,23 +4572,23 @@
         <v>125</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C127" s="32">
         <v>13</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4542,23 +4596,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C128" s="32">
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4566,20 +4620,20 @@
         <v>127</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C129" s="32">
         <v>15</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4587,23 +4641,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C130" s="37">
         <v>0</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4611,23 +4665,23 @@
         <v>129</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C131" s="37">
         <v>1</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4635,23 +4689,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C132" s="37">
         <v>2</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4659,23 +4713,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C133" s="37">
         <v>3</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4683,23 +4737,23 @@
         <v>132</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C134" s="37">
         <v>4</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4707,20 +4761,20 @@
         <v>133</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C135" s="37">
         <v>5</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4728,23 +4782,23 @@
         <v>134</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C136" s="37">
         <v>6</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4752,23 +4806,23 @@
         <v>135</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C137" s="37">
         <v>7</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4776,23 +4830,23 @@
         <v>136</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C138" s="37">
         <v>8</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H138" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4800,23 +4854,23 @@
         <v>137</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C139" s="37">
         <v>9</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4824,20 +4878,20 @@
         <v>138</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C140" s="37">
         <v>10</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4845,20 +4899,23 @@
         <v>139</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C141" s="37">
         <v>11</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="H141" s="38" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
